--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H2">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N2">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O2">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P2">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q2">
-        <v>0.005182900142222222</v>
+        <v>0.1316561093278889</v>
       </c>
       <c r="R2">
-        <v>0.04664610128</v>
+        <v>1.184904983951</v>
       </c>
       <c r="S2">
-        <v>3.179691157007592E-05</v>
+        <v>0.001074395577605181</v>
       </c>
       <c r="T2">
-        <v>3.179691157007592E-05</v>
+        <v>0.001074395577605181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H3">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.463534</v>
       </c>
       <c r="O3">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P3">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q3">
-        <v>0.001753188595555556</v>
+        <v>0.02981703056511111</v>
       </c>
       <c r="R3">
-        <v>0.01577869736</v>
+        <v>0.268353275086</v>
       </c>
       <c r="S3">
-        <v>1.075575087476872E-05</v>
+        <v>0.0002433254783239127</v>
       </c>
       <c r="T3">
-        <v>1.075575087476872E-05</v>
+        <v>0.0002433254783239126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H4">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N4">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O4">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P4">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q4">
-        <v>0.002621004355555555</v>
+        <v>0.01182018636933333</v>
       </c>
       <c r="R4">
-        <v>0.0235890392</v>
+        <v>0.106381677324</v>
       </c>
       <c r="S4">
-        <v>1.60797702891206E-05</v>
+        <v>9.646005815083444E-05</v>
       </c>
       <c r="T4">
-        <v>1.60797702891206E-05</v>
+        <v>9.646005815083444E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H5">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N5">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O5">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P5">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q5">
-        <v>0.004359022457777777</v>
+        <v>0.03359955967477778</v>
       </c>
       <c r="R5">
-        <v>0.03923120212</v>
+        <v>0.3023960370730001</v>
       </c>
       <c r="S5">
-        <v>2.674245071650316E-05</v>
+        <v>0.0002741932638625809</v>
       </c>
       <c r="T5">
-        <v>2.674245071650316E-05</v>
+        <v>0.0002741932638625809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H6">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I6">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J6">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N6">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O6">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P6">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q6">
-        <v>0.006869464893333333</v>
+        <v>0.07729808547644443</v>
       </c>
       <c r="R6">
-        <v>0.06182518404</v>
+        <v>0.695682769288</v>
       </c>
       <c r="S6">
-        <v>4.214392748331204E-05</v>
+        <v>0.0006308003602507103</v>
       </c>
       <c r="T6">
-        <v>4.214392748331205E-05</v>
+        <v>0.0006308003602507103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H7">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I7">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J7">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N7">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O7">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P7">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q7">
-        <v>0.006557045773333333</v>
+        <v>0.05122749744666666</v>
       </c>
       <c r="R7">
-        <v>0.05901341196000001</v>
+        <v>0.4610474770199999</v>
       </c>
       <c r="S7">
-        <v>4.022724708067137E-05</v>
+        <v>0.0004180481786181759</v>
       </c>
       <c r="T7">
-        <v>4.022724708067137E-05</v>
+        <v>0.0004180481786181758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.758311</v>
       </c>
       <c r="I8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N8">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O8">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P8">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q8">
-        <v>2.399346425472444</v>
+        <v>3.583648281289889</v>
       </c>
       <c r="R8">
-        <v>21.594117829252</v>
+        <v>32.252834531609</v>
       </c>
       <c r="S8">
-        <v>0.0147199066204687</v>
+        <v>0.02924479452390031</v>
       </c>
       <c r="T8">
-        <v>0.0147199066204687</v>
+        <v>0.02924479452390031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>15.758311</v>
       </c>
       <c r="I9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.463534</v>
       </c>
       <c r="O9">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P9">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q9">
         <v>0.8116125478971111</v>
@@ -1013,10 +1013,10 @@
         <v>7.304512931074</v>
       </c>
       <c r="S9">
-        <v>0.004979214668717027</v>
+        <v>0.006623262199081363</v>
       </c>
       <c r="T9">
-        <v>0.004979214668717027</v>
+        <v>0.006623262199081362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>15.758311</v>
       </c>
       <c r="I10">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J10">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N10">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O10">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P10">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q10">
-        <v>1.213354928531111</v>
+        <v>0.3217426884573333</v>
       </c>
       <c r="R10">
-        <v>10.92019435678</v>
+        <v>2.895684196116</v>
       </c>
       <c r="S10">
-        <v>0.007443890159357295</v>
+        <v>0.002625620059487319</v>
       </c>
       <c r="T10">
-        <v>0.007443890159357295</v>
+        <v>0.002625620059487319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>15.758311</v>
       </c>
       <c r="I11">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J11">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N11">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O11">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P11">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q11">
-        <v>2.017944522492555</v>
+        <v>0.9145720992007779</v>
       </c>
       <c r="R11">
-        <v>18.161500702433</v>
+        <v>8.231148892807001</v>
       </c>
       <c r="S11">
-        <v>0.01238001925067067</v>
+        <v>0.007463476049829272</v>
       </c>
       <c r="T11">
-        <v>0.01238001925067067</v>
+        <v>0.007463476049829272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>15.758311</v>
       </c>
       <c r="I12">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J12">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N12">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O12">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P12">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q12">
-        <v>3.180116456895667</v>
+        <v>2.104035677332444</v>
       </c>
       <c r="R12">
-        <v>28.621048112061</v>
+        <v>18.936321095992</v>
       </c>
       <c r="S12">
-        <v>0.01950990352654167</v>
+        <v>0.01717023720653608</v>
       </c>
       <c r="T12">
-        <v>0.01950990352654168</v>
+        <v>0.01717023720653608</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>15.758311</v>
       </c>
       <c r="I13">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J13">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N13">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O13">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P13">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q13">
-        <v>3.035486678537667</v>
+        <v>1.394400412686666</v>
       </c>
       <c r="R13">
-        <v>27.31938010683901</v>
+        <v>12.54960371418</v>
       </c>
       <c r="S13">
-        <v>0.01862260488164105</v>
+        <v>0.011379172941153</v>
       </c>
       <c r="T13">
-        <v>0.01862260488164106</v>
+        <v>0.011379172941153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H14">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I14">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J14">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N14">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O14">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P14">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q14">
-        <v>9.178535351838665</v>
+        <v>10.79405738771211</v>
       </c>
       <c r="R14">
-        <v>82.60681816654798</v>
+        <v>97.146516489409</v>
       </c>
       <c r="S14">
-        <v>0.05630999419566213</v>
+        <v>0.0880862086915537</v>
       </c>
       <c r="T14">
-        <v>0.05630999419566213</v>
+        <v>0.08808620869155367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H15">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I15">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J15">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.463534</v>
       </c>
       <c r="O15">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P15">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q15">
-        <v>3.104768191780666</v>
+        <v>2.444601626874889</v>
       </c>
       <c r="R15">
-        <v>27.942913726026</v>
+        <v>22.001414641874</v>
       </c>
       <c r="S15">
-        <v>0.01904764454854156</v>
+        <v>0.01994946676101148</v>
       </c>
       <c r="T15">
-        <v>0.01904764454854156</v>
+        <v>0.01994946676101147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H16">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I16">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J16">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N16">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O16">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P16">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q16">
-        <v>4.641606142246665</v>
+        <v>0.9690987425906666</v>
       </c>
       <c r="R16">
-        <v>41.77445528021999</v>
+        <v>8.721888683316001</v>
       </c>
       <c r="S16">
-        <v>0.02847609176295229</v>
+        <v>0.007908447307287977</v>
       </c>
       <c r="T16">
-        <v>0.02847609176295229</v>
+        <v>0.007908447307287975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H17">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I17">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J17">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N17">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O17">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P17">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q17">
-        <v>7.719508504946331</v>
+        <v>2.754718920245222</v>
       </c>
       <c r="R17">
-        <v>69.47557654451698</v>
+        <v>24.792470282207</v>
       </c>
       <c r="S17">
-        <v>0.04735891538728074</v>
+        <v>0.02248021638012843</v>
       </c>
       <c r="T17">
-        <v>0.04735891538728073</v>
+        <v>0.02248021638012843</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H18">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I18">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J18">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N18">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O18">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P18">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q18">
-        <v>12.165317610121</v>
+        <v>6.337419318043555</v>
       </c>
       <c r="R18">
-        <v>109.487858491089</v>
+        <v>57.036773862392</v>
       </c>
       <c r="S18">
-        <v>0.07463379915806208</v>
+        <v>0.05171727558633925</v>
       </c>
       <c r="T18">
-        <v>0.07463379915806209</v>
+        <v>0.05171727558633925</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H19">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I19">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J19">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N19">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O19">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P19">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q19">
-        <v>11.612046302779</v>
+        <v>4.199976363353333</v>
       </c>
       <c r="R19">
-        <v>104.508416725011</v>
+        <v>37.79978727018</v>
       </c>
       <c r="S19">
-        <v>0.07123949898806674</v>
+        <v>0.0342744142590065</v>
       </c>
       <c r="T19">
-        <v>0.07123949898806674</v>
+        <v>0.03427441425900649</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H20">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I20">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J20">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N20">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O20">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P20">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q20">
-        <v>0.5464320657288889</v>
+        <v>0.09178943440622221</v>
       </c>
       <c r="R20">
-        <v>4.917888591560001</v>
+        <v>0.8261049096559999</v>
       </c>
       <c r="S20">
-        <v>0.003352341661281892</v>
+        <v>0.000749058763018114</v>
       </c>
       <c r="T20">
-        <v>0.003352341661281891</v>
+        <v>0.0007490587630181139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H21">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I21">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J21">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.463534</v>
       </c>
       <c r="O21">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P21">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q21">
-        <v>0.1848383028022222</v>
+        <v>0.02078816080177778</v>
       </c>
       <c r="R21">
-        <v>1.66354472522</v>
+        <v>0.187093447216</v>
       </c>
       <c r="S21">
-        <v>0.001133976539714931</v>
+        <v>0.0001696442963869679</v>
       </c>
       <c r="T21">
-        <v>0.001133976539714931</v>
+        <v>0.0001696442963869678</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H22">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I22">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J22">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N22">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O22">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P22">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q22">
-        <v>0.2763319348222222</v>
+        <v>0.008240925749333333</v>
       </c>
       <c r="R22">
-        <v>2.4869874134</v>
+        <v>0.074168331744</v>
       </c>
       <c r="S22">
-        <v>0.001695286780455485</v>
+        <v>6.725106966669902E-05</v>
       </c>
       <c r="T22">
-        <v>0.001695286780455484</v>
+        <v>6.725106966669902E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H23">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I23">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J23">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N23">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O23">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P23">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q23">
-        <v>0.4595708157211111</v>
+        <v>0.02342530547644444</v>
       </c>
       <c r="R23">
-        <v>4.13613734149</v>
+        <v>0.210827749288</v>
       </c>
       <c r="S23">
-        <v>0.002819450922588369</v>
+        <v>0.0001911650339389983</v>
       </c>
       <c r="T23">
-        <v>0.002819450922588368</v>
+        <v>0.0001911650339389983</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H24">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I24">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J24">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N24">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O24">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P24">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q24">
-        <v>0.7242462307033335</v>
+        <v>0.0538915177031111</v>
       </c>
       <c r="R24">
-        <v>6.518216076330002</v>
+        <v>0.4850236593279999</v>
       </c>
       <c r="S24">
-        <v>0.004443225360456369</v>
+        <v>0.000439788237600522</v>
       </c>
       <c r="T24">
-        <v>0.004443225360456369</v>
+        <v>0.000439788237600522</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H25">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I25">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J25">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N25">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O25">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P25">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q25">
-        <v>0.6913079489633335</v>
+        <v>0.03571534234666666</v>
       </c>
       <c r="R25">
-        <v>6.221771540670002</v>
+        <v>0.3214380811199999</v>
       </c>
       <c r="S25">
-        <v>0.004241150151014273</v>
+        <v>0.0002914593638366408</v>
       </c>
       <c r="T25">
-        <v>0.004241150151014273</v>
+        <v>0.0002914593638366407</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H26">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I26">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J26">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N26">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O26">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P26">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q26">
-        <v>7.050757515648446</v>
+        <v>13.67392132848844</v>
       </c>
       <c r="R26">
-        <v>63.456817640836</v>
+        <v>123.065291956396</v>
       </c>
       <c r="S26">
-        <v>0.04325615139692757</v>
+        <v>0.1115876861229492</v>
       </c>
       <c r="T26">
-        <v>0.04325615139692756</v>
+        <v>0.1115876861229492</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H27">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I27">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J27">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.463534</v>
       </c>
       <c r="O27">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P27">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q27">
-        <v>2.385017524409112</v>
+        <v>3.096823476539555</v>
       </c>
       <c r="R27">
-        <v>21.465157719682</v>
+        <v>27.871411288856</v>
       </c>
       <c r="S27">
-        <v>0.01463199931230054</v>
+        <v>0.0252720019207889</v>
       </c>
       <c r="T27">
-        <v>0.01463199931230054</v>
+        <v>0.0252720019207889</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H28">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I28">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J28">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N28">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O28">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P28">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q28">
-        <v>3.565584065171111</v>
+        <v>1.227655133722667</v>
       </c>
       <c r="R28">
-        <v>32.09025658654</v>
+        <v>11.048896203504</v>
       </c>
       <c r="S28">
-        <v>0.02187473385649818</v>
+        <v>0.01001842795772583</v>
       </c>
       <c r="T28">
-        <v>0.02187473385649817</v>
+        <v>0.01001842795772583</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H29">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I29">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J29">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N29">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O29">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P29">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q29">
-        <v>5.929963825596556</v>
+        <v>3.489680334700889</v>
       </c>
       <c r="R29">
-        <v>53.369674430369</v>
+        <v>31.407123012308</v>
       </c>
       <c r="S29">
-        <v>0.03638012120669532</v>
+        <v>0.02847795774915996</v>
       </c>
       <c r="T29">
-        <v>0.03638012120669531</v>
+        <v>0.02847795774915996</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H30">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I30">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J30">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N30">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O30">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P30">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q30">
-        <v>9.345140731263669</v>
+        <v>8.02824832849422</v>
       </c>
       <c r="R30">
-        <v>84.10626658137302</v>
+        <v>72.25423495644799</v>
       </c>
       <c r="S30">
-        <v>0.05733211238650274</v>
+        <v>0.06551548989320791</v>
       </c>
       <c r="T30">
-        <v>0.05733211238650275</v>
+        <v>0.06551548989320791</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H31">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I31">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J31">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N31">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O31">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P31">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q31">
-        <v>8.920129367369668</v>
+        <v>5.320533726213332</v>
       </c>
       <c r="R31">
-        <v>80.28116430632703</v>
+        <v>47.88480353591999</v>
       </c>
       <c r="S31">
-        <v>0.05472468249528733</v>
+        <v>0.04341885792558445</v>
       </c>
       <c r="T31">
-        <v>0.05472468249528733</v>
+        <v>0.04341885792558444</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H32">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I32">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J32">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N32">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O32">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P32">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q32">
-        <v>11.71704493001644</v>
+        <v>19.82335178486422</v>
       </c>
       <c r="R32">
-        <v>105.453404370148</v>
+        <v>178.410166063778</v>
       </c>
       <c r="S32">
-        <v>0.07188366190335241</v>
+        <v>0.161770855904051</v>
       </c>
       <c r="T32">
-        <v>0.07188366190335241</v>
+        <v>0.161770855904051</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H33">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I33">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J33">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.463534</v>
       </c>
       <c r="O33">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P33">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q33">
-        <v>3.963454626025111</v>
+        <v>4.489525697589777</v>
       </c>
       <c r="R33">
-        <v>35.671091634226</v>
+        <v>40.405731278308</v>
       </c>
       <c r="S33">
-        <v>0.02431565586785433</v>
+        <v>0.03663731656403658</v>
       </c>
       <c r="T33">
-        <v>0.02431565586785433</v>
+        <v>0.03663731656403658</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H34">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I34">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J34">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N34">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O34">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P34">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q34">
-        <v>5.92533619269111</v>
+        <v>1.779755711741333</v>
       </c>
       <c r="R34">
-        <v>53.32802573421999</v>
+        <v>16.017801405672</v>
       </c>
       <c r="S34">
-        <v>0.03635173084025269</v>
+        <v>0.01452391139062314</v>
       </c>
       <c r="T34">
-        <v>0.03635173084025269</v>
+        <v>0.01452391139062314</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H35">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I35">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J35">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N35">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O35">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P35">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q35">
-        <v>9.854494701268553</v>
+        <v>5.059057985610445</v>
       </c>
       <c r="R35">
-        <v>88.69045231141699</v>
+        <v>45.531521870494</v>
       </c>
       <c r="S35">
-        <v>0.06045698122396569</v>
+        <v>0.04128505357127886</v>
       </c>
       <c r="T35">
-        <v>0.06045698122396568</v>
+        <v>0.04128505357127886</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H36">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I36">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J36">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N36">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O36">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P36">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q36">
-        <v>15.52988222648766</v>
+        <v>11.63870897080711</v>
       </c>
       <c r="R36">
-        <v>139.768940038389</v>
+        <v>104.748380737264</v>
       </c>
       <c r="S36">
-        <v>0.09527528570859156</v>
+        <v>0.0949790899268208</v>
       </c>
       <c r="T36">
-        <v>0.09527528570859159</v>
+        <v>0.0949790899268208</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H37">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I37">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J37">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N37">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O37">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P37">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q37">
-        <v>14.82359254974567</v>
+        <v>7.713282035506666</v>
       </c>
       <c r="R37">
-        <v>133.412332947711</v>
+        <v>69.41953831955999</v>
       </c>
       <c r="S37">
-        <v>0.09094222318028404</v>
+        <v>0.0629451694271994</v>
       </c>
       <c r="T37">
-        <v>0.09094222318028405</v>
+        <v>0.06294516942719938</v>
       </c>
     </row>
   </sheetData>
